--- a/data_raw/dicts/GEN_dict.xlsx
+++ b/data_raw/dicts/GEN_dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\DOTS\development\packages\mpipoet\data_raw\dicts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171E55E0-B702-4DE0-A73B-7E849514E0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F58575-3806-4D72-BFE2-F1E3E503AC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="104">
   <si>
     <t>key</t>
   </si>
@@ -323,6 +323,15 @@
   </si>
   <si>
     <t>Now the test starts.&lt;br&gt; Have fun!</t>
+  </si>
+  <si>
+    <t>YOU_FINISHED</t>
+  </si>
+  <si>
+    <t>Sie haben den {{test_name}} beendet.</t>
+  </si>
+  <si>
+    <t>You finished the {{test_name}}.</t>
   </si>
 </sst>
 </file>
@@ -1166,10 +1175,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1559,6 +1568,17 @@
         <v>100</v>
       </c>
     </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_raw/dicts/GEN_dict.xlsx
+++ b/data_raw/dicts/GEN_dict.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\DOTS\development\packages\mpipoet\data_raw\dicts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F58575-3806-4D72-BFE2-F1E3E503AC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7738D24D-C98D-496F-9CB0-21F5ED821BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="107">
   <si>
     <t>key</t>
   </si>
@@ -277,12 +277,6 @@
     <t xml:space="preserve"> with a link to this page.</t>
   </si>
   <si>
-    <t>Wähle mindestens eine Antwort aus!</t>
-  </si>
-  <si>
-    <t>Wähle zuerst eine Antwort aus!</t>
-  </si>
-  <si>
     <t>Andere Nationalität</t>
   </si>
   <si>
@@ -319,19 +313,34 @@
     <t>CONTINUE_MAIN_TEST</t>
   </si>
   <si>
-    <t>Nun geht der Test los.&lt;br&gt; Viel Vergnügen!</t>
-  </si>
-  <si>
     <t>Now the test starts.&lt;br&gt; Have fun!</t>
   </si>
   <si>
     <t>YOU_FINISHED</t>
   </si>
   <si>
-    <t>Sie haben den {{test_name}} beendet.</t>
-  </si>
-  <si>
-    <t>You finished the {{test_name}}.</t>
+    <t>Nun geht der Test los.&lt;br&gt; Bitte klicken Sie auf "Weiter", wenn sie bereit sind.</t>
+  </si>
+  <si>
+    <t>Der  {{test_name}} ist nun beendet. Bitte klicken Sie „weiter“, um den nächsten Test zu beginnen.</t>
+  </si>
+  <si>
+    <t>You finished the {{test_name}}. Please click "continue" to begin the next test.</t>
+  </si>
+  <si>
+    <t>ENTER_ANSWER</t>
+  </si>
+  <si>
+    <t>Wählen Sie zuerst eine Antwort aus!</t>
+  </si>
+  <si>
+    <t>Wählen Sie mindestens eine Antwort aus!</t>
+  </si>
+  <si>
+    <t>Bitte geben Sie etwas an.</t>
+  </si>
+  <si>
+    <t>Please give an answer.</t>
   </si>
 </sst>
 </file>
@@ -1175,10 +1184,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,7 +1219,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -1221,10 +1230,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1265,7 +1274,7 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -1408,7 +1417,7 @@
         <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
         <v>53</v>
@@ -1441,7 +1450,7 @@
         <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="C24" t="s">
         <v>61</v>
@@ -1452,7 +1461,7 @@
         <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="C25" t="s">
         <v>63</v>
@@ -1496,7 +1505,7 @@
         <v>73</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
         <v>74</v>
@@ -1507,7 +1516,7 @@
         <v>75</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C30" t="s">
         <v>76</v>
@@ -1529,7 +1538,7 @@
         <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C32" t="s">
         <v>81</v>
@@ -1548,35 +1557,46 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" t="s">
         <v>91</v>
-      </c>
-      <c r="B34" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" t="s">
         <v>101</v>
       </c>
-      <c r="B36" t="s">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>102</v>
       </c>
-      <c r="C36" t="s">
-        <v>103</v>
+      <c r="B37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/data_raw/dicts/GEN_dict.xlsx
+++ b/data_raw/dicts/GEN_dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\DOTS\development\packages\mpipoet\data_raw\dicts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7738D24D-C98D-496F-9CB0-21F5ED821BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E2CAE8-A8C2-4661-B76E-E5F5BDC2FEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -217,18 +217,12 @@
     <t>SELECT_MONTH</t>
   </si>
   <si>
-    <t>Bitte Monat auswÃ¤hlen!</t>
-  </si>
-  <si>
     <t>Select month, please!</t>
   </si>
   <si>
     <t>SELECT_YEAR</t>
   </si>
   <si>
-    <t>Bitte Jahr auswÃ¤hlen!</t>
-  </si>
-  <si>
     <t>Select year, please!</t>
   </si>
   <si>
@@ -319,15 +313,6 @@
     <t>YOU_FINISHED</t>
   </si>
   <si>
-    <t>Nun geht der Test los.&lt;br&gt; Bitte klicken Sie auf "Weiter", wenn sie bereit sind.</t>
-  </si>
-  <si>
-    <t>Der  {{test_name}} ist nun beendet. Bitte klicken Sie „weiter“, um den nächsten Test zu beginnen.</t>
-  </si>
-  <si>
-    <t>You finished the {{test_name}}. Please click "continue" to begin the next test.</t>
-  </si>
-  <si>
     <t>ENTER_ANSWER</t>
   </si>
   <si>
@@ -341,6 +326,21 @@
   </si>
   <si>
     <t>Please give an answer.</t>
+  </si>
+  <si>
+    <t>Nun geht der Test los.&lt;br&gt; Bitte klicken Sie auf "Weiter", wenn Sie bereit sind.</t>
+  </si>
+  <si>
+    <t>Bitte Jahr auswählen!</t>
+  </si>
+  <si>
+    <t>Bitte Monat auswählen!</t>
+  </si>
+  <si>
+    <t>You finished the {{test_name}}. &lt;br/&gt;Please click "continue" to begin the next test.</t>
+  </si>
+  <si>
+    <t>&lt;h4&gt;Der  {{test_name}} ist nun beendet.&lt;/h4&gt;Bitte klicken Sie „Weiter“, um den nächsten Test zu beginnen.</t>
   </si>
 </sst>
 </file>
@@ -1186,11 +1186,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1219,7 +1222,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -1230,10 +1233,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1274,7 +1277,7 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -1417,7 +1420,7 @@
         <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
         <v>53</v>
@@ -1450,7 +1453,7 @@
         <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
         <v>61</v>
@@ -1461,7 +1464,7 @@
         <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C25" t="s">
         <v>63</v>
@@ -1472,131 +1475,131 @@
         <v>64</v>
       </c>
       <c r="B26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" t="s">
         <v>65</v>
-      </c>
-      <c r="C26" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" t="s">
         <v>67</v>
-      </c>
-      <c r="B27" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" t="s">
         <v>70</v>
-      </c>
-      <c r="B28" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" t="s">
         <v>77</v>
-      </c>
-      <c r="B31" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" t="s">
         <v>82</v>
-      </c>
-      <c r="B33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" t="s">
         <v>89</v>
-      </c>
-      <c r="B34" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C37" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/data_raw/dicts/GEN_dict.xlsx
+++ b/data_raw/dicts/GEN_dict.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\DOTS\development\packages\mpipoet\data_raw\dicts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E2CAE8-A8C2-4661-B76E-E5F5BDC2FEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182EC8AE-B8EC-44C9-A5E2-BD8756D1B1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -337,10 +337,10 @@
     <t>Bitte Monat auswählen!</t>
   </si>
   <si>
-    <t>You finished the {{test_name}}. &lt;br/&gt;Please click "continue" to begin the next test.</t>
-  </si>
-  <si>
-    <t>&lt;h4&gt;Der  {{test_name}} ist nun beendet.&lt;/h4&gt;Bitte klicken Sie „Weiter“, um den nächsten Test zu beginnen.</t>
+    <t>&lt;h4&gt;Der  {{test_name}} ist nun beendet.&lt;/h4&gt;Bitte klicken Sie „Weiter“, um fortzufahren.</t>
+  </si>
+  <si>
+    <t>You finished the {{test_name}}. &lt;br/&gt;Please click "continue" to proceed.</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1187,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1585,10 +1585,10 @@
         <v>96</v>
       </c>
       <c r="B36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" t="s">
         <v>106</v>
-      </c>
-      <c r="C36" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">

--- a/data_raw/dicts/GEN_dict.xlsx
+++ b/data_raw/dicts/GEN_dict.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\DOTS\development\packages\mpipoet\data_raw\dicts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182EC8AE-B8EC-44C9-A5E2-BD8756D1B1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8384CA-E406-4C06-8697-EE56E7AD2F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4080" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general_dict" sheetId="1" r:id="rId1"/>
@@ -328,9 +328,6 @@
     <t>Please give an answer.</t>
   </si>
   <si>
-    <t>Nun geht der Test los.&lt;br&gt; Bitte klicken Sie auf "Weiter", wenn Sie bereit sind.</t>
-  </si>
-  <si>
     <t>Bitte Jahr auswählen!</t>
   </si>
   <si>
@@ -340,7 +337,10 @@
     <t>&lt;h4&gt;Der  {{test_name}} ist nun beendet.&lt;/h4&gt;Bitte klicken Sie „Weiter“, um fortzufahren.</t>
   </si>
   <si>
-    <t>You finished the {{test_name}}. &lt;br/&gt;Please click "continue" to proceed.</t>
+    <t>&lt;h4&gt;The {{test_name}} is finished.&lt;/h4&gt;Please clicken "Conitnue" to proceed.</t>
+  </si>
+  <si>
+    <t>Nun geht der Test los.&lt;br&gt; Bitte klicken Sie auf „Weiter", wenn Sie bereit sind.</t>
   </si>
 </sst>
 </file>
@@ -1186,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1475,7 +1475,7 @@
         <v>64</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" t="s">
         <v>65</v>
@@ -1486,7 +1486,7 @@
         <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C27" t="s">
         <v>67</v>
@@ -1574,7 +1574,7 @@
         <v>94</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>95</v>
@@ -1585,10 +1585,10 @@
         <v>96</v>
       </c>
       <c r="B36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" t="s">
         <v>105</v>
-      </c>
-      <c r="C36" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
